--- a/daily_digest_Bagmati.xlsx
+++ b/daily_digest_Bagmati.xlsx
@@ -423,13 +423,13 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="E2">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
